--- a/HT-6/BAC-26-Catálogo de indicadores de ejecución.xlsx
+++ b/HT-6/BAC-26-Catálogo de indicadores de ejecución.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvill\Dropbox\uniandes\MATI\Notas de clase\Artefactos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028726E9-2A06-4024-886B-F651C5A6CF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301671FD-A1D7-D549-95BC-C4E1FD863A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="525" windowWidth="16185" windowHeight="14910" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="2700" yWindow="520" windowWidth="16180" windowHeight="14920" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-26" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Descripción</t>
   </si>
@@ -52,6 +52,105 @@
   </si>
   <si>
     <t>Modelo estratégico</t>
+  </si>
+  <si>
+    <t>OP-01</t>
+  </si>
+  <si>
+    <t>OP-02</t>
+  </si>
+  <si>
+    <t>OP-03</t>
+  </si>
+  <si>
+    <t>OP-04</t>
+  </si>
+  <si>
+    <t>OP-05</t>
+  </si>
+  <si>
+    <t>OP-06</t>
+  </si>
+  <si>
+    <t>OP-07</t>
+  </si>
+  <si>
+    <t>OP-08</t>
+  </si>
+  <si>
+    <t>OP-09</t>
+  </si>
+  <si>
+    <t>OP-10</t>
+  </si>
+  <si>
+    <t>OP-11</t>
+  </si>
+  <si>
+    <t>Puntos de venta abiertos</t>
+  </si>
+  <si>
+    <t>Ventas totales</t>
+  </si>
+  <si>
+    <t>Rotación de trabajadores</t>
+  </si>
+  <si>
+    <t>Retención de clientes</t>
+  </si>
+  <si>
+    <t>Canales de difusión</t>
+  </si>
+  <si>
+    <t>Presencia en el mercado</t>
+  </si>
+  <si>
+    <t>Recibimiento en nuevos puntos de venta</t>
+  </si>
+  <si>
+    <t>Aprobación por clientes</t>
+  </si>
+  <si>
+    <t>Promedio de ventas por montura</t>
+  </si>
+  <si>
+    <t>Ventas por empleado</t>
+  </si>
+  <si>
+    <t>Ventas por internet</t>
+  </si>
+  <si>
+    <t>Queremos tener 30 puntos de venta</t>
+  </si>
+  <si>
+    <t>Queremos aumentar nuestras ventas en un 45%</t>
+  </si>
+  <si>
+    <t>Queremos que menos del 5% de nuestros empleados dejen de trabajar con nosotros</t>
+  </si>
+  <si>
+    <t>Queremos retener el 30% de nuestros clientes</t>
+  </si>
+  <si>
+    <t>Queremos que el 15% de los prospectos que tienen algún contacto con nuestros medios se vuelvan clientes nuestros</t>
+  </si>
+  <si>
+    <t>Queremos llegar a ocupar más del 7% del mercado en el que estemos ubicados</t>
+  </si>
+  <si>
+    <t>Queremos que cada punto de venta nuevo venda más de 500 artículos en su primer año desde apertura</t>
+  </si>
+  <si>
+    <t>Queremos la aprobación de servicio del 60% de nuestra clientela.</t>
+  </si>
+  <si>
+    <t>Queremos tener certeza de la cantidad de monturas por referencia que tenemos, para tener un mercado por demanda con cambios de stock constantes</t>
+  </si>
+  <si>
+    <t>Queremos que cada empleado venda al menos 4000 artículos al año.</t>
+  </si>
+  <si>
+    <t>Queremos vender 10000 artículos mediante canales digitales en el último año</t>
   </si>
 </sst>
 </file>
@@ -79,7 +178,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,8 +191,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -116,20 +221,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,89 +568,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.375" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="48.375" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
